--- a/GERM/GERM.xlsx
+++ b/GERM/GERM.xlsx
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
         <v>25</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.166666666666667</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/GERM/GERM.xlsx
+++ b/GERM/GERM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,10 +539,25 @@
           <t>FTES</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Potential FTEF</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>FTEF</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -556,7 +571,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -564,31 +579,19 @@
           <t>31519</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7:00pm</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9:15pm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Tu Th</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>LA211</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J2" t="n">
         <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -602,18 +605,18 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Salvilla, J</t>
+          <t>Smith, D</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -631,16 +634,25 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V2" t="n">
         <v>1.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -654,7 +666,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -662,28 +674,16 @@
           <t>32234</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4:30pm</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6:45pm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>M W</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>LA210</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>25</v>
@@ -700,18 +700,18 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Smith, D</t>
+          <t>Salvilla, J</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -729,11 +729,20 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/GERM/GERM.xlsx
+++ b/GERM/GERM.xlsx
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -605,7 +605,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -647,12 +647,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>25</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>4.166666666666666</v>
@@ -742,7 +742,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
